--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45946</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45847.6196412037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45831</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>45855.94373842593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45958.45964120371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>45337.7322337963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45856</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44748</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44805</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45502</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45740</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45202</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>45082</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45576.60858796296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>45856</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45321</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>46034.3603125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>46003</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>46055.64440972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>44417.44490740741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44469</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44529.66587962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44252</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44258</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44560</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>44470.30924768518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44559.36643518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44420</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44368.66224537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44278.94663194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44602</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44490.43729166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44263</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44300</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44322</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44350</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44503.46024305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44529.66766203703</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44594</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44497.45621527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44530.42803240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44545.38498842593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44802</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44729</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44783.32818287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44503.46638888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44711</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44728.31896990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44429</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44348.66256944444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44468.68621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44623.45966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44418.68386574074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44580.55488425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44474</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44824.54311342593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45251</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45757.43902777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45775.39359953703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44802</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>45616.52491898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>45091</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>45148.49081018518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>45443</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>45110.51828703703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>45642.52232638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>45105</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>45755.57172453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45698.57233796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45123.83592592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45700.59056712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45162.31151620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45687</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45187.52722222222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45324</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45204.66226851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45645</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45764</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45085</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45405.56321759259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45363.63673611111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44663</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45199.73854166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>44861</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44573</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45550.69572916667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45798.68631944444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45334.28350694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45798.64635416667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45226.47944444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45831.45100694444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45798.78508101852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44594</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44747.82956018519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45111.56303240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44433.63525462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45551.69674768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>45803.97512731481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>45033.63331018519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45804.75467592593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>45357.49171296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>45366</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45804.90881944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>45805</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45649</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>45511.67317129629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>45889.42077546296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>45540.36935185185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>45540.38136574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>45485.36313657407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>45811.56836805555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>45808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>45808.48747685185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45645.73471064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45473.6690625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45891.59125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45890.48255787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>44974</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45146</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45891</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>45454</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>45816.72797453704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45741.47072916666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>45574.56451388889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45896.53821759259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45896</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44980.40984953703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44672</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45033</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>45727</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>45330.7070949074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>45217</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44378.73106481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45908.63545138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45909.45751157407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>45442.44256944444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>45237.31706018518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>45036.66107638889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45062.91006944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45488</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45073</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>45918.37016203703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44529</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45923.61116898148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45635.64003472222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44949.64356481482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>45833</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>45049.58232638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45551.69797453703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45342.45185185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45925</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45925.52607638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45924</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45925.52497685186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45925.525625</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45924.49282407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45303</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45307.58195601852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45835.65546296296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45929.60807870371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45835.64762731481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>45835.66128472222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>45586.47738425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44838.83872685185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44454.6478587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45559</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45930.59353009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45932.39648148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45936.6285300926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45488</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45934.49616898148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45934.50327546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45840.33878472223</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45642.32403935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45845.63146990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45600</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45250.48587962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45940.44650462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45945.62936342593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44952</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45601</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45343</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45945.62994212963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45946.83520833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45946.84063657407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45947.40092592593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45462.39026620371</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>45593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>45950.34901620371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45350.41543981482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45727.2896875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44832.65980324074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45726.8008912037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45370.43350694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45863.40622685185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45867</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>45867</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45595.58311342593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45870</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45704.69732638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45954.63684027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45180</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45870</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45873</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45684.36178240741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45958.49119212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44489</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44838.70366898148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44328.4104050926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45238</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45274</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45959.53269675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45958.51035879629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45958.51543981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45960.59478009259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44922.53709490741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44461.86927083333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45960.59121527777</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45964.67119212963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44360</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45963.3319212963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45964.58819444444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45675</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44952</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45775.54140046296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45755.60289351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45748.45770833334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45974</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45974.48746527778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45974.48194444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45974.48049768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45974.47877314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45974.48694444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45623.2665162037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45974.65268518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44882</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45978.62155092593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45478</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45257</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45161.3239699074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45981.42877314815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45603.35983796296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44903.72783564815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45985.53037037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44489.78759259259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45399</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45986.57347222222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>46029.4640625</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>46029.47936342593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45988.63855324074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>45685</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45694.43144675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>45988.63175925926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44293</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45616.50922453704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45616.5225</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>44811.49701388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>44497</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45698.57355324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44928</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44928</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45994.63263888889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45994.62958333334</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45994.63376157408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44630</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44630</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44351</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45166</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45033.35427083333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>44627.5578587963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45622.39576388889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45014</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44645.63090277778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>44726</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45699.63547453703</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45226</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>46001.29516203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44823.76302083334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>44823</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>44956.29600694445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>46043.4958912037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>46042.67238425926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>46042.67421296296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45551.45349537037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45219.43929398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>46043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45629.76458333333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45103</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>46043</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>46003.63511574074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>46045.6983912037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44985</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44704.67240740741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45747.59469907408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45154</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>46038</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45630.71177083333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44957</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45161</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45775.38278935185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45606.81386574074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45384.59219907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>46007.67928240741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>46003</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>46006.33894675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>46006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>46006.47704861111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>44328.4183449074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45225.81679398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>46038.59006944444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>45226.48465277778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45084.56028935185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45764.55996527777</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>46010.64409722222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45698.99592592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>46010.65613425926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>46055.5340625</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>46055.53633101852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45194.85041666667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>46014.31443287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>46014.31998842592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>46014.33203703703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>46014.33501157408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>46014.3283912037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45609.46583333334</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>46014.34018518519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>46057.64575231481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>45169.74657407407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>45203.39712962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45511.64774305555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45148.45607638889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>45244</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45133</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>46059.36423611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>46059.36023148148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45341.50043981482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45050</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44454</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45091</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45616.52381944445</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44812.47820601852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45236.4627662037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45197.36021990741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45705.64513888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45679.44023148148</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>44952</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>44433.63525462963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45111.56012731481</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45749.31451388889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45112</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45093</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45511.65049768519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44368</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45384.58055555556</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45085</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45511.67099537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44812.48083333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45608.95855324074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45511.6528587963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44334</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45553.43869212963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44690.64334490741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45608.95311342592</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45705.64208333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45384</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45384</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44433</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44266</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45642.32462962963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45352.54994212963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45530</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45539.44940972222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45603.35425925926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45210.69572916667</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45642.78518518519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45642.79180555556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45028.67302083333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45688</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45700.57475694444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45700.57809027778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45217.57265046296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45643.99405092592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45558.56859953704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44747.358125</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45188.62711805556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45559</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45343</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45462</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45462</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44592.60259259259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45746</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45204</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44987.74418981482</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44616</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45775.39715277778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>45076</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>45040.8387962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45040.86141203704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>45485.36423611111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45168.61142361111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45728.90636574074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45622.4022337963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>44441.60664351852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45646.49675925926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>44428</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45596.44608796296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45777.49116898148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>45777.52524305556</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45741.47922453703</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45777.48964120371</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45777.52393518519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45783.5255787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45783.58949074074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45639.44412037037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45728.42609953704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45701</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45709.43996527778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45720.53413194444</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45757.59909722222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45740.38252314815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45426.30793981482</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45525</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45526</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45728.53525462963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>45278</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45233</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45618.61814814815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45090</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45740.45753472222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45740.94930555556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45793.68196759259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45797.62946759259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45796.40887731482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45797.4537037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45603.32528935185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45797.62638888889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>45637.24947916667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45796.46711805555</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45796.47368055556</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45946</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45847.6196412037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45831</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>45855.94373842593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45958.45964120371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>45337.7322337963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45856</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44748</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44805</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45502</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45740</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45202</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>45082</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45576.60858796296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>45856</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45321</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>46034.3603125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>46003</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>46055.64440972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>44417.44490740741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44469</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44529.66587962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44252</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44258</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44560</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>44470.30924768518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44559.36643518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44420</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44368.66224537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44278.94663194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44602</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44490.43729166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44263</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44300</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44322</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44350</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44503.46024305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44529.66766203703</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44594</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44497.45621527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44530.42803240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44545.38498842593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44802</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44729</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44783.32818287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44503.46638888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44711</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44728.31896990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44429</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44348.66256944444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44468.68621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44623.45966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44418.68386574074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44580.55488425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44474</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44824.54311342593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45251</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45757.43902777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45775.39359953703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44802</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>45616.52491898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>45091</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>45148.49081018518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>45443</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>45110.51828703703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>45642.52232638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>45105</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>45755.57172453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45698.57233796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45123.83592592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45700.59056712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45162.31151620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45687</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45187.52722222222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45324</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45204.66226851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45645</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45764</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45085</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45405.56321759259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45363.63673611111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44663</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45199.73854166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>44861</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44573</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45550.69572916667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45798.68631944444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45334.28350694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45798.64635416667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45226.47944444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45831.45100694444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45798.78508101852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44594</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44747.82956018519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45111.56303240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44433.63525462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45551.69674768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>45803.97512731481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>45033.63331018519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45804.75467592593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>45357.49171296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>45366</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45804.90881944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>45805</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45649</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>45511.67317129629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>45889.42077546296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>45540.36935185185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>45540.38136574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>45485.36313657407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>45811.56836805555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>45808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>45808.48747685185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45645.73471064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45473.6690625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45891.59125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45890.48255787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>44974</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45146</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45891</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>45454</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>45816.72797453704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45741.47072916666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>45574.56451388889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45896.53821759259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45896</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44980.40984953703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44672</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45033</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>45727</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>45330.7070949074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>45217</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44378.73106481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45908.63545138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45909.45751157407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>45442.44256944444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>45237.31706018518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>45036.66107638889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45062.91006944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45488</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45073</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>45918.37016203703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44529</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45923.61116898148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45635.64003472222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44949.64356481482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>45833</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>45049.58232638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45551.69797453703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45342.45185185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45925</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45925.52607638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45924</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45925.52497685186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45925.525625</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45924.49282407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45303</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45307.58195601852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45835.65546296296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45929.60807870371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45835.64762731481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>45835.66128472222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>45586.47738425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44838.83872685185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44454.6478587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45559</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45930.59353009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45932.39648148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45936.6285300926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45488</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45934.49616898148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45934.50327546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45840.33878472223</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45642.32403935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45845.63146990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45600</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45250.48587962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45940.44650462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45945.62936342593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44952</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45601</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45343</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45945.62994212963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45946.83520833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45946.84063657407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45947.40092592593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45462.39026620371</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>45593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>45950.34901620371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45350.41543981482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45727.2896875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44832.65980324074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45726.8008912037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45370.43350694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45863.40622685185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45867</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>45867</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45595.58311342593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45870</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45704.69732638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45954.63684027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45180</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45870</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45873</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45684.36178240741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45958.49119212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44489</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44838.70366898148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44328.4104050926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45238</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45274</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45959.53269675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45958.51035879629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45958.51543981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45960.59478009259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44922.53709490741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44461.86927083333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45960.59121527777</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45964.67119212963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44360</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45963.3319212963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45964.58819444444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45675</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44952</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45775.54140046296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45755.60289351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45748.45770833334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45974</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45974.48746527778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45974.48194444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45974.48049768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45974.47877314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45974.48694444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45623.2665162037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45974.65268518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44882</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45978.62155092593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45478</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45257</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45161.3239699074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45981.42877314815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45603.35983796296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44903.72783564815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45985.53037037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44489.78759259259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45399</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45986.57347222222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>46029.4640625</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>46029.47936342593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45988.63855324074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>45685</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45694.43144675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>45988.63175925926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44293</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45616.50922453704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45616.5225</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>44811.49701388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>44497</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45698.57355324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44928</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44928</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45994.63263888889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45994.62958333334</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45994.63376157408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44630</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44630</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44351</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45166</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45033.35427083333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>44627.5578587963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45622.39576388889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45014</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44645.63090277778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>44726</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45699.63547453703</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45226</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>46001.29516203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44823.76302083334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>44823</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>44956.29600694445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>46043.4958912037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>46042.67238425926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>46042.67421296296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45551.45349537037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45219.43929398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>46043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45629.76458333333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45103</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>46043</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>46003.63511574074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>46045.6983912037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44985</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44704.67240740741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45747.59469907408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45154</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>46038</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45630.71177083333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44957</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45161</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45775.38278935185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45606.81386574074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45384.59219907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>46007.67928240741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>46003</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>46006.33894675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>46006</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>46006.47704861111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>44328.4183449074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45225.81679398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>46038.59006944444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>45226.48465277778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45084.56028935185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45764.55996527777</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>46010.64409722222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45698.99592592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>46010.65613425926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>46055.5340625</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>46055.53633101852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45194.85041666667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>46014.31443287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>46014.31998842592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>46014.33203703703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>46014.33501157408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>46014.3283912037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45609.46583333334</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>46014.34018518519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>46057.64575231481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>45169.74657407407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>45203.39712962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45511.64774305555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45148.45607638889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>45244</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45133</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>46059.36423611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>46059.36023148148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45341.50043981482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45050</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44454</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45091</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45616.52381944445</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44812.47820601852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45236.4627662037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45197.36021990741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45705.64513888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45679.44023148148</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>44952</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>44433.63525462963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45111.56012731481</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45749.31451388889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45112</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45093</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45511.65049768519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44368</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45384.58055555556</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45085</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45511.67099537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44812.48083333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45608.95855324074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45511.6528587963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44334</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45553.43869212963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44690.64334490741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45608.95311342592</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45705.64208333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45384</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45384</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44433</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44266</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45642.32462962963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45352.54994212963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45530</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45539.44940972222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45603.35425925926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45210.69572916667</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45642.78518518519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45642.79180555556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45028.67302083333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45688</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45700.57475694444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45700.57809027778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45217.57265046296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45643.99405092592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45558.56859953704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44747.358125</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45188.62711805556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45559</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45343</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45462</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45462</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44592.60259259259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45746</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45204</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44987.74418981482</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44616</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45775.39715277778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>45076</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>45040.8387962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45040.86141203704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>45485.36423611111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45168.61142361111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45728.90636574074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45622.4022337963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>44441.60664351852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45646.49675925926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>44428</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45596.44608796296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45777.49116898148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>45777.52524305556</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45741.47922453703</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45777.48964120371</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45777.52393518519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45783.5255787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45783.58949074074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45639.44412037037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45728.42609953704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45701</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45709.43996527778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45720.53413194444</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45757.59909722222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45740.38252314815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45426.30793981482</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45525</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45526</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45728.53525462963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>45278</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45233</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45618.61814814815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45090</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45740.45753472222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45740.94930555556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45793.68196759259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45797.62946759259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45796.40887731482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45797.4537037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45603.32528935185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45797.62638888889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>45637.24947916667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45796.46711805555</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45796.47368055556</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45946</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45847.6196412037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45831</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>45855.94373842593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45958.45964120371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>45337.7322337963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45856</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45264</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44748</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45232</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44805</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45502</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45740</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45576.60858796296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>45202</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>45856</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45321</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>46034.3603125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>46003</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>46055.64440972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44427</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>44417.44490740741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>44469</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44512</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44529.66587962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44252</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44258</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44560</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>44470.30924768518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44559.36643518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44420</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44368.66224537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44312</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44278.94663194445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44602</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44490.43729166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44263</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44300</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44322</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44350</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44503.46024305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44529.66766203703</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44594</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44497.45621527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44530.42803240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44802</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44545.38498842593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44729</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44783.32818287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44503.46638888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44711</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44728.31896990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44429</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44348.66256944444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44468.68621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44623.45966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44418.68386574074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44474</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44824.54311342593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44580.55488425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45775.39359953703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45251</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45616.52491898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45091</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44802</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>45148.49081018518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>45110.51828703703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>45757.43902777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>45443</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>45642.52232638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>45755.57172453704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>45698.57233796296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45700.59056712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45123.83592592592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45162.31151620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45687</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45187.52722222222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45324</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45204.66226851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45764</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45085</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45363.63673611111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45405.56321759259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44418</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45550.69572916667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45199.73854166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>44861</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44573</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45334.28350694444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45226.47944444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44594</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44747.82956018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45551.69674768519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45033.63331018519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45111.56303240741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>45645</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45540.36935185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45540.38136574074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45485.36313657407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45645.73471064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>45741.47072916666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45146</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45831.45100694444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45727</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45574.56451388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44433.63525462963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44980.40984953703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44672</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45033</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45330.7070949074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45889.42077546296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45891.59125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45217</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44378.73106481481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45891</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45237.31706018518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44529</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44949.64356481482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45896.53821759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45896</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45036.66107638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45835.65546296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45062.91006944444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45835.64762731481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45835.66128472222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45635.64003472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>45908.63545138889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>45049.58232638889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>45909.45751157407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>45551.69797453703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45840.33878472223</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45342.45185185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>45442.44256944444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>45845.63146990741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>45307.58195601852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45600</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>44952</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45601</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>45586.47738425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44838</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44838.83872685185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44454.6478587963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45559</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>45593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45918.37016203703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45727.2896875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45726.8008912037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45923.61116898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45488</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45863.40622685185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45925.52607638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45925.52497685186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45925</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45925.525625</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45924.49282407408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45870</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45929.60807870371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45642.32403935185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45870</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45873</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45930.59353009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45250.48587962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45932.39648148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45343</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45462.39026620371</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45936.6285300926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45350.41543981482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45934.49616898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45934.50327546296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44832.65980324074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45370.43350694444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45748.45770833334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45595.58311342593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45704.69732638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44630</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>45940.44650462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45945.62936342593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45180</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45684.36178240741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45945.62994212963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44489</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44838.70366898148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44328.4104050926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45238</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>45946.83520833333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45274</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45946.84063657407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45947.40092592593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45950.34901620371</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>44805</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>44922.53709490741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>44461.86927083333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44360</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45675</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44952</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45775.54140046296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45954.63684027778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45755.60289351852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45958.49119212963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45959.53269675926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45958.51035879629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45958.51543981482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45960.59478009259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45960</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45960.59121527777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45964.67119212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45623.2665162037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44882</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45963.3319212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45964.58819444444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45478</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45257</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45161.3239699074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45603.35983796296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44903.72783564815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44489.78759259259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45399</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45974.48746527778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45974.48194444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45974.48049768519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45974.47877314815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45974.48694444444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45974.65268518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45978.62155092593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45685</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45981.42877314815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45694.43144675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45985.53037037037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>45616.50922453704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45616.5225</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>45986.57347222222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44811.49701388889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44497</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>45698.57355324074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45988.63855324074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44928</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44928</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45988.63175925926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44630</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44630</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>44351</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45166</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45033.35427083333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44627.5578587963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45994.63263888889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45622.39576388889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45994.62958333334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45994.63376157408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44645.63090277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45699.63547453703</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>45226</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>44823.76302083334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>44823</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>44956.29600694445</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45551.45349537037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>46001.29516203704</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>46043.4958912037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45219.43929398148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>46042.67238425926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>46042.67421296296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45629.76458333333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45103</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44704.67240740741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45747.59469907408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45630.71177083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>46043</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>44957</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45161</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45775.38278935185</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>46043</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>46003.63511574074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>46045.6983912037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45606.81386574074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45384.59219907408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>46038</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>44328.4183449074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45187</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45225.81679398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>46007.67928240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45226.48465277778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>46003</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>46006.33894675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>46006</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>46006.47704861111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45084.56028935185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45764.55996527777</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45050</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>46038.59006944444</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45698.99592592593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45194.85041666667</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>46010.64409722222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>46010.65613425926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>46055.5340625</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45609.46583333334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>46055.53633101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45169.74657407407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>45203.39712962963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>46014.31443287037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>46014.31998842592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>46014.33203703703</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45511.64774305555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>46014.33501157408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>46014.3283912037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>45148.45607638889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45244</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>46014.34018518519</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>46057.64575231481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45133</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45341.50043981482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45091</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45616.52381944445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44812.47820601852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>46063.65738425926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45236.4627662037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45022</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>46069.60075231481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45197.36021990741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44713</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45705.64513888889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>46071.41921296297</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>45679.44023148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44952</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>46029.47936342593</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>45414</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44433.63525462963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>46029.4640625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>45111.56012731481</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45107</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45749.31451388889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45112</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45093</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45511.65049768519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>46072.38540509259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44368</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45384.58055555556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>46059.36423611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>46059.36023148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45890.48255787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45085</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45511.67099537037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>44812.48083333333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>45608.95855324074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45511.6528587963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>44334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45553.43869212963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44690.64334490741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45608.95311342592</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45705.64208333333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45384</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45384</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44433</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44266</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>45642.32462962963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>45352.54994212963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>45530</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45539.44940972222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45603.35425925926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45210.69572916667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45271</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45642.78518518519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45642.79180555556</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45028.67302083333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45688</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44722</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45700.57475694444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45700.57809027778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45217.57265046296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45643.99405092592</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45558.56859953704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44747.358125</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45188.62711805556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45559</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45343</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45462</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45462</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44592.60259259259</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45746</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45204</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44987.74418981482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45775.39715277778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45426</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45040.8387962963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45040.86141203704</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45485.36423611111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45168.61142361111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>45728.90636574074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45622.4022337963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44441.60664351852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45646.49675925926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44428</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45596.44608796296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45777.49116898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45777.52524305556</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45741.47922453703</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45777.48964120371</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45777.52393518519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45783.5255787037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45783.58949074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45639.44412037037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45728.42609953704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45701</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45709.43996527778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45720.53413194444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45757.59909722222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>45740.38252314815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45426.30793981482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45525</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45526</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45728.53525462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45278</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45233</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45618.61814814815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45090</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45740.45753472222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45740.94930555556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45793.68196759259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45797.62946759259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45796.40887731482</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45797.4537037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45603.32528935185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45797.62638888889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>45637.24947916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45796.46711805555</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45796.47368055556</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45798.68631944444</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45798.64635416667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45798.78508101852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45803.97512731481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45804.75467592593</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45357.49171296296</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45366</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45804.90881944444</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45805</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>45511.67317129629</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45811.56836805555</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45808</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>45808.48747685185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>45473.6690625</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44974</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>45816.72797453704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
